--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1369067.204493635</v>
+        <v>1473246.838944706</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>256.8241943842542</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>282.2717811533781</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>169.8321389885745</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -871,19 +873,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>54.45849581111718</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>59.42520910744355</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>168.1158122680972</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>74.75769145492379</v>
+        <v>29.74310329855266</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>104.4484877422294</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>147.6364325960793</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1342,10 +1344,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.45380789237071</v>
+        <v>2.153367246128588</v>
       </c>
     </row>
     <row r="11">
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922726</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>100.0416311957212</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>172.0260335000749</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>219.245038753228</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>33.45472478221053</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>90.85912858529608</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>171.4144753991468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U28" t="n">
-        <v>214.0647808588594</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>108.9065924712602</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>223.8290352905946</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>115.4764219077151</v>
       </c>
       <c r="I37" t="n">
-        <v>41.55695577161244</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>84.8780074336923</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8253826161911274</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>55.52079624060472</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2332.706849548771</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C2" t="n">
-        <v>1963.744332608359</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.478634001608</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="E2" t="n">
-        <v>1219.690381403364</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>808.7044766137567</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>393.6320264587532</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883007</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.306689612893</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X2" t="n">
-        <v>2719.306689612893</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y2" t="n">
-        <v>2719.306689612893</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080133</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.8037095364738</v>
+        <v>480.687070124138</v>
       </c>
       <c r="C4" t="n">
-        <v>461.8675266085669</v>
+        <v>311.7508871962311</v>
       </c>
       <c r="D4" t="n">
-        <v>311.7508871962312</v>
+        <v>311.7508871962311</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4519,19 +4521,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1369.003009614982</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1369.003009614982</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1079.585839578021</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>851.5962886800039</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>630.8037095364738</v>
+        <v>652.2346852641123</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.138951213863</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.176434273451</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213863</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,37 +4649,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.0249360836216</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C7" t="n">
-        <v>142.0249360836216</v>
+        <v>193.8813322992448</v>
       </c>
       <c r="D7" t="n">
-        <v>142.0249360836216</v>
+        <v>193.8813322992448</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4768,7 +4770,7 @@
         <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943748</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943748</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>922.582043345504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>511.5961385558964</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4811,13 +4813,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3066.187443443257</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2735.124556099686</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2382.355900829572</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2008.890142568492</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4883,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>677.4387267498528</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="C10" t="n">
-        <v>677.4387267498528</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
         <v>212.7293032143257</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>873.6869975319821</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>859.0871915800925</v>
+        <v>360.6423967967188</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5258,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>1098.66716026353</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356233</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232875</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408944</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.811296842984</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2345.91093085731</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2126.309465880251</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>2273.199413378165</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>2018.514925172278</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1729.097755135317</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1501.1082042373</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.31562509377</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>984.5467179762953</v>
+        <v>2978.516248701934</v>
       </c>
       <c r="C22" t="n">
-        <v>815.6105350483884</v>
+        <v>2809.580065774027</v>
       </c>
       <c r="D22" t="n">
-        <v>665.4938956360527</v>
+        <v>2659.463426361691</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>2511.550332779298</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>2511.550332779298</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>2511.550332779298</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218393</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296631</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y22" t="n">
-        <v>1166.195182806535</v>
+        <v>3160.164713532174</v>
       </c>
     </row>
     <row r="23">
@@ -5981,52 +5983,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2023.916610740955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,19 +6314,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2897.617548589219</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>2728.681365661313</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U28" t="n">
-        <v>4072.149801703854</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>3817.465313497967</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>3528.048143461006</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>3300.058592562989</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>3079.266013419459</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6475,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,10 +6548,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
         <v>1577.52840832642</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>2897.617548589219</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F31" t="n">
         <v>2728.681365661313</v>
@@ -6646,25 +6648,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>4580.826493336715</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398593</v>
+        <v>4361.225028359656</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196493</v>
+        <v>4072.149801703854</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990607</v>
+        <v>3817.465313497967</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>3528.048143461006</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>3300.058592562989</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>3079.266013419459</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,13 +6782,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327652</v>
+        <v>2940.5785039035</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048583</v>
+        <v>2771.642320975594</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925226</v>
+        <v>2621.525681563258</v>
       </c>
       <c r="E37" t="n">
-        <v>444.7013164925226</v>
+        <v>2621.525681563258</v>
       </c>
       <c r="F37" t="n">
-        <v>444.7013164925226</v>
+        <v>2621.525681563258</v>
       </c>
       <c r="G37" t="n">
-        <v>277.5052172074025</v>
+        <v>2454.329582278138</v>
       </c>
       <c r="H37" t="n">
-        <v>135.7933860496006</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>3122.22696873374</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.129363765926</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2263.274529420831</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.496179545122</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,34 +7426,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,58 +7639,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327652</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048583</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925226</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101294</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>149.8982754122191</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630049</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>80.98465480592338</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891692</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>61.35027805667497</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>32.89260457059996</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>112.9792378643586</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>49.43558426092781</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>45.99097492814144</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U28" t="n">
-        <v>72.11969353038475</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038442</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>24.81829093850875</v>
       </c>
       <c r="I37" t="n">
-        <v>39.70888054695308</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>80.64613085857654</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.54986409393054</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564666</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="F2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="F2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="L2" t="n">
-        <v>504466.6248062539</v>
-      </c>
       <c r="M2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="O2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314477</v>
@@ -26430,34 +26432,34 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26525,43 +26527,43 @@
         <v>314863.098580639</v>
       </c>
       <c r="D6" t="n">
-        <v>314863.098580639</v>
+        <v>314863.0985806389</v>
       </c>
       <c r="E6" t="n">
-        <v>66764.60092319798</v>
+        <v>66764.60092319814</v>
       </c>
       <c r="F6" t="n">
-        <v>392177.0627305532</v>
+        <v>392177.0627305531</v>
       </c>
       <c r="G6" t="n">
+        <v>392177.0627305531</v>
+      </c>
+      <c r="H6" t="n">
+        <v>392177.0627305529</v>
+      </c>
+      <c r="I6" t="n">
         <v>392177.062730553</v>
       </c>
-      <c r="H6" t="n">
-        <v>392177.0627305531</v>
-      </c>
-      <c r="I6" t="n">
-        <v>392177.0627305531</v>
-      </c>
       <c r="J6" t="n">
-        <v>174645.8603332756</v>
+        <v>174645.8603332755</v>
       </c>
       <c r="K6" t="n">
         <v>392177.0627305531</v>
       </c>
       <c r="L6" t="n">
-        <v>392177.0627305533</v>
+        <v>392177.062730553</v>
       </c>
       <c r="M6" t="n">
         <v>307122.0347950413</v>
       </c>
       <c r="N6" t="n">
+        <v>392177.062730553</v>
+      </c>
+      <c r="O6" t="n">
         <v>392177.0627305531</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>392177.062730553</v>
-      </c>
-      <c r="P6" t="n">
-        <v>392177.0627305531</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26805,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>125.1061756880076</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>12.33598323394239</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>9.999841193362784</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.7533423944957</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>295.2578325132394</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>181.1251564493158</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>71.67627119164538</v>
+        <v>116.6908593480165</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>306.473237911224</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>103.3587393628227</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.1308454597241</v>
+        <v>216.4312861059662</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28497,7 +28499,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28849,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28983,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -31841,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>468.377827851028</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>639.8517673857158</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>575.5951359912044</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,19 +33268,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209194</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868572</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -33998,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>339.3493584601591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>508.5100553023825</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096319</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>433.4611020691861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410452</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648388</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>200.7949786802849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1473246.838944706</v>
+        <v>1469234.228930713</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>57.29212650174259</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>256.8241943842542</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.8321389885745</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>90.15502218119917</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>300.3401491857027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>168.1158122680972</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>29.74310329855266</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>161.6426651386088</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>265.5573389850061</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>147.6364325960793</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>52.0785263574582</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.153367246128588</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>115.2302178375793</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922726</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>41.74133133758757</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000749</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>19.91555826189058</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>34.44047701880762</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>90.85912858529608</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>104.4262124629297</v>
       </c>
     </row>
     <row r="23">
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>103.1686991936193</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>66.2562870115476</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>151.8555862333575</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>139.3687739767484</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9065924712602</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>223.8290352905946</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4764219077151</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>84.8780074336923</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.0280580960838</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.569348694472</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.569348694472</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1491.569348694472</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,16 +4327,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265599</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995485</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734405</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758593</v>
+        <v>2403.03827352421</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4397,46 +4397,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>480.687070124138</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>311.7508871962311</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>311.7508871962311</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>163.837793613838</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1836.228869117585</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621296</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X4" t="n">
-        <v>652.2346852641123</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y4" t="n">
-        <v>652.2346852641123</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>3155.791869823214</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2782.326111562134</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8175152271517</v>
+        <v>844.171363847817</v>
       </c>
       <c r="C7" t="n">
-        <v>193.8813322992448</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D7" t="n">
-        <v>193.8813322992448</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1764.019128756565</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1474.601958719604</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1246.612407821587</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>1025.819828678057</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>769.4825048886535</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>383.6942522904092</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>376.7487515412058</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3066.187443443257</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.124556099686</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.355900829572</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.890142568492</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1618.75081059268</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360.6423967967188</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C10" t="n">
-        <v>360.6423967967188</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967188</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1874.689976010252</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1620.005487804365</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1330.588317767405</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>1102.598766869387</v>
       </c>
       <c r="Y10" t="n">
-        <v>360.6423967967188</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5272,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.66716026353</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356233</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232875</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408944</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="F16" t="n">
-        <v>484.811296842984</v>
+        <v>135.97962399503</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>135.97962399503</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>135.97962399503</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378165</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172278</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135317</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.1082042373</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.31562509377</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589157</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828444</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650331</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9333885650331</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>113.9333885650331</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>113.9333885650331</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5746,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2978.516248701934</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>2809.580065774027</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>2659.463426361691</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2511.550332779298</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2511.550332779298</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2511.550332779298</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218393</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673038</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467151</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430191</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532174</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y22" t="n">
-        <v>3160.164713532174</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5983,40 +5983,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,10 +6025,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6083,13 +6083,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>198.027470314254</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>198.027470314254</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.0655846733346</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1294017454277</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>302.4540366416804</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>302.4540366416804</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>160.7422054838785</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2043.673064443772</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1754.597837787969</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1499.913349582082</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1210.496179545122</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X28" t="n">
-        <v>982.5066286471044</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.7140495035743</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2897.617548589219</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C31" t="n">
-        <v>2728.681365661313</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661313</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>316.6799057705112</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4580.826493336715</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4361.225028359656</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4072.149801703854</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V31" t="n">
-        <v>3817.465313497967</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W31" t="n">
-        <v>3528.048143461006</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>3300.058592562989</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y31" t="n">
-        <v>3079.266013419459</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2940.5785039035</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>2771.642320975594</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>2621.525681563258</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>2621.525681563258</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>2621.525681563258</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2454.329582278138</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3122.22696873374</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.3164745246296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>701.3802915967227</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>551.263652184387</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>403.3505586019938</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>403.3505586019938</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.757518498399</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.964939354869</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
   </sheetData>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>52.01660326104853</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.52450498097795</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891692</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>61.35027805667497</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>191.2691783702295</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>49.43558426092781</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>114.158440889165</v>
       </c>
     </row>
     <row r="23">
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>37.12601365260461</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>15.00954930701792</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>65.54986409393072</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.9259388694754591</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>72.11969353038442</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.81829093850875</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>80.64613085857654</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221285734</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564666</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564666</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564666</v>
       </c>
     </row>
   </sheetData>
@@ -26319,40 +26319,40 @@
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="G2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="N2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062537</v>
@@ -26377,19 +26377,19 @@
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.0670231448</v>
+      </c>
+      <c r="C4" t="n">
         <v>90354.06702314483</v>
       </c>
-      <c r="C4" t="n">
-        <v>90354.06702314477</v>
-      </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
@@ -26453,7 +26453,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26524,46 +26524,46 @@
         <v>-1013881.647146954</v>
       </c>
       <c r="C6" t="n">
+        <v>314863.0985806389</v>
+      </c>
+      <c r="D6" t="n">
         <v>314863.098580639</v>
       </c>
-      <c r="D6" t="n">
-        <v>314863.0985806389</v>
-      </c>
       <c r="E6" t="n">
-        <v>66764.60092319814</v>
+        <v>66417.22166884106</v>
       </c>
       <c r="F6" t="n">
-        <v>392177.0627305531</v>
+        <v>391829.6834761959</v>
       </c>
       <c r="G6" t="n">
-        <v>392177.0627305531</v>
+        <v>391829.6834761961</v>
       </c>
       <c r="H6" t="n">
-        <v>392177.0627305529</v>
+        <v>391829.683476196</v>
       </c>
       <c r="I6" t="n">
-        <v>392177.062730553</v>
+        <v>391829.6834761961</v>
       </c>
       <c r="J6" t="n">
-        <v>174645.8603332755</v>
+        <v>174298.4810789188</v>
       </c>
       <c r="K6" t="n">
-        <v>392177.0627305531</v>
+        <v>391829.683476196</v>
       </c>
       <c r="L6" t="n">
-        <v>392177.062730553</v>
+        <v>391829.683476196</v>
       </c>
       <c r="M6" t="n">
-        <v>307122.0347950413</v>
+        <v>306774.6555406843</v>
       </c>
       <c r="N6" t="n">
-        <v>392177.062730553</v>
+        <v>391829.6834761961</v>
       </c>
       <c r="O6" t="n">
-        <v>392177.0627305531</v>
+        <v>391829.683476196</v>
       </c>
       <c r="P6" t="n">
-        <v>392177.062730553</v>
+        <v>391829.6834761961</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973554</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>325.441715161738</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>125.1061756880076</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.999841193362784</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>129.39392709497</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>81.59022088655911</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>181.1251564493158</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>116.6908593480165</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>90.4949781852192</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>145.3643866684473</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>103.3587393628227</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>234.1333118481547</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.4312861059662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28499,7 +28499,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28985,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-7.333857380491618e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,10 +31846,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31861,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>468.377827851028</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35509,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366978</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096319</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1469234.228930713</v>
+        <v>1470994.759233499</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.29212650174259</v>
+        <v>75.45713216103655</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>90.15502218119917</v>
+        <v>28.87956703897748</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>298.7307299422349</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>300.3401491857027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>50.48639156340163</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6426651386088</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>265.5573389850061</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>17.35112070699554</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>52.0785263574582</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>115.2302178375793</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>89.43475015428537</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>41.74133133758757</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>124.1997375316454</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>34.44047701880762</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>104.4262124629297</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2371,7 +2371,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2608,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>66.2562870115476</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788183983</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.3687739767484</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>31.83025205764035</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>155.0500112286391</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>192.5871593887792</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.0280580960838</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>155.0500112286391</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.03827352421</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2403.03827352421</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4397,46 +4397,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4518,22 +4518,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1836.228869117585</v>
+        <v>1898.123268251142</v>
       </c>
       <c r="U4" t="n">
-        <v>1547.126002243228</v>
+        <v>1609.020401376785</v>
       </c>
       <c r="V4" t="n">
-        <v>1547.126002243228</v>
+        <v>1609.020401376785</v>
       </c>
       <c r="W4" t="n">
-        <v>1257.708832206268</v>
+        <v>1319.603231339825</v>
       </c>
       <c r="X4" t="n">
-        <v>1029.71928130825</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535336</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="C5" t="n">
-        <v>1535.524858594925</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1535.524858594925</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
         <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535336</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4646,22 +4646,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>844.171363847817</v>
+        <v>793.5839474470786</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1764.019128756565</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W7" t="n">
-        <v>1474.601958719604</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X7" t="n">
-        <v>1246.612407821587</v>
+        <v>1065.372881705156</v>
       </c>
       <c r="Y7" t="n">
-        <v>1025.819828678057</v>
+        <v>844.5803025616257</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495404</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C8" t="n">
-        <v>1127.748203495404</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D8" t="n">
-        <v>769.4825048886535</v>
+        <v>1337.882007288091</v>
       </c>
       <c r="E8" t="n">
-        <v>383.6942522904092</v>
+        <v>952.0937546898465</v>
       </c>
       <c r="F8" t="n">
-        <v>376.7487515412058</v>
+        <v>541.107849900239</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>126.0353997452355</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.1577228956174</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>531.2215399677106</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1874.689976010252</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1620.005487804365</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1330.588317767405</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1102.598766869387</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>881.8061877258572</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
@@ -5047,19 +5047,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5123,16 +5123,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C13" t="n">
-        <v>464.5051450557705</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5241,10 +5241,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876693</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7826650753335</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>282.8695714929404</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>135.97962399503</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>135.97962399503</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>135.97962399503</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2443.925817935984</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>1055.185257670615</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1685.615852542402</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>1457.626301644385</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>1236.833722500854</v>
       </c>
     </row>
     <row r="20">
@@ -5743,40 +5743,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6019,10 +6019,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,40 +6220,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622266</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343197</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219839</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395908</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>302.4540366416804</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>302.4540366416804</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>160.7422054838785</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782999</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038386</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934014</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>633.992644467967</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>483.8760050556313</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>483.8760050556313</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>483.8760050556313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>316.6799057705112</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6691,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>267.680263960966</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6903,7 +6903,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7198,28 +7198,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7326,16 +7326,16 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7356,10 +7356,10 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
         <v>2035.268256189238</v>
@@ -7402,43 +7402,43 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D43" t="n">
         <v>402.7245934908938</v>
@@ -7563,16 +7563,16 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770323</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>634.3345878491255</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.70136564882</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072721</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>52.01660326104853</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>56.9992124922838</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>39.52450498097795</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>63.36835372228759</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>43.04708356698244</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>191.2691783702295</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>15.00954930701792</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392193768</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9259388694754591</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>113.5907959652909</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>62.35543909864916</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>24.81829093850902</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5874149221285734</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.35543909864916</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564666</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.106165177</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>504466.6248062536</v>
@@ -26328,31 +26328,31 @@
         <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062537</v>
@@ -26377,13 +26377,13 @@
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26453,7 +26453,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26524,46 +26524,46 @@
         <v>-1013881.647146954</v>
       </c>
       <c r="C6" t="n">
-        <v>314863.0985806389</v>
+        <v>314863.098580639</v>
       </c>
       <c r="D6" t="n">
         <v>314863.098580639</v>
       </c>
       <c r="E6" t="n">
-        <v>66417.22166884106</v>
+        <v>66729.86299776223</v>
       </c>
       <c r="F6" t="n">
-        <v>391829.6834761959</v>
+        <v>392142.3248051175</v>
       </c>
       <c r="G6" t="n">
-        <v>391829.6834761961</v>
+        <v>392142.3248051171</v>
       </c>
       <c r="H6" t="n">
-        <v>391829.683476196</v>
+        <v>392142.324805117</v>
       </c>
       <c r="I6" t="n">
-        <v>391829.6834761961</v>
+        <v>392142.3248051174</v>
       </c>
       <c r="J6" t="n">
-        <v>174298.4810789188</v>
+        <v>174611.12240784</v>
       </c>
       <c r="K6" t="n">
-        <v>391829.683476196</v>
+        <v>392142.3248051173</v>
       </c>
       <c r="L6" t="n">
-        <v>391829.683476196</v>
+        <v>392142.3248051172</v>
       </c>
       <c r="M6" t="n">
-        <v>306774.6555406843</v>
+        <v>307087.2968696057</v>
       </c>
       <c r="N6" t="n">
-        <v>391829.6834761961</v>
+        <v>392142.3248051174</v>
       </c>
       <c r="O6" t="n">
-        <v>391829.683476196</v>
+        <v>392142.3248051174</v>
       </c>
       <c r="P6" t="n">
-        <v>391829.6834761961</v>
+        <v>392142.3248051173</v>
       </c>
     </row>
   </sheetData>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26974,10 +26974,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>325.441715161738</v>
+        <v>307.276709502444</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>129.39392709497</v>
+        <v>190.6693822371917</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>66.54216182877263</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>81.59022088655911</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>129.3455886185357</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>90.4949781852192</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>145.3643866684473</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>277.2566436803249</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>234.1333118481547</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29456,7 +29456,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31843,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L12" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043726</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236508</v>
@@ -35491,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L12" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295757</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
